--- a/Impact Soundworks/Bravura Scoring Brass/xlsx/03 FX.xlsx
+++ b/Impact Soundworks/Bravura Scoring Brass/xlsx/03 FX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3945" windowWidth="24825" windowHeight="15615" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2385" yWindow="3945" windowWidth="24825" windowHeight="15615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="16 Full Brass FX" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -58,6 +73,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,6 +116,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -108,6 +153,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,6 +196,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -152,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -625,13 +700,31 @@
   <si>
     <t>Sneaks &amp; Cows</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>16 Full Brass FX</t>
+  </si>
+  <si>
+    <t>17 Horns FX</t>
+  </si>
+  <si>
+    <t>18 Trumpets FX</t>
+  </si>
+  <si>
+    <t>19 Trombones FX</t>
+  </si>
+  <si>
+    <t>20 Low Brass FX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -676,8 +769,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,6 +830,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -789,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +955,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -939,13 +1051,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1244,7 +1356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1252,12 +1364,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1272,100 +1384,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1373,12 +1444,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1386,13 +1453,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1401,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -1413,13 +1480,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1428,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -1439,26 +1506,54 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2972,26 +3067,55 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B126">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3010,7 +3134,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D124</xm:sqref>
+          <xm:sqref>D4:D126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3019,7 +3143,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E124</xm:sqref>
+          <xm:sqref>E4:E126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3028,7 +3152,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F124</xm:sqref>
+          <xm:sqref>F4:F126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3038,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3058,100 +3182,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3159,38 +3242,62 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="12">
+        <v>120</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12">
+        <v>120</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -3199,7 +3306,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -3212,7 +3319,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="13"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -4730,26 +4837,55 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I124">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I126">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B126">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4767,7 +4903,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F124</xm:sqref>
+          <xm:sqref>F4:F126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4776,7 +4912,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E124</xm:sqref>
+          <xm:sqref>E4:E126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4785,7 +4921,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D124</xm:sqref>
+          <xm:sqref>D4:D126</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4795,12 +4931,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -4815,100 +4951,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -4916,12 +5011,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -4929,13 +5020,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -4944,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -4955,26 +5046,54 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12">
+        <v>120</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -6488,26 +6607,55 @@
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
     </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B125">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6525,7 +6673,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F123</xm:sqref>
+          <xm:sqref>F4:F125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6534,7 +6682,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E123</xm:sqref>
+          <xm:sqref>E4:E125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6543,7 +6691,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D123</xm:sqref>
+          <xm:sqref>D4:D125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6553,10 +6701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6573,100 +6721,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -6674,12 +6781,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -6687,13 +6790,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -6702,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -6713,26 +6816,54 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12">
+        <v>120</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -8246,26 +8377,55 @@
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
     </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B125">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -8283,7 +8443,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D123</xm:sqref>
+          <xm:sqref>D4:D125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8292,7 +8452,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E123</xm:sqref>
+          <xm:sqref>E4:E125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -8301,7 +8461,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F123</xm:sqref>
+          <xm:sqref>F4:F125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8311,12 +8471,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8331,100 +8491,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -8432,12 +8551,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -8445,13 +8560,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -8460,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -8471,26 +8586,54 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12">
+        <v>120</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -10004,26 +10147,55 @@
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
     </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I123">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I125">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B125">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10041,7 +10213,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F123</xm:sqref>
+          <xm:sqref>F4:F125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10050,7 +10222,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E123</xm:sqref>
+          <xm:sqref>E4:E125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10059,7 +10231,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D123</xm:sqref>
+          <xm:sqref>D4:D125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
